--- a/[5] Tester Results/STRENGTH_METRIC_MEAN_DIFF_BY_DATE.xlsx
+++ b/[5] Tester Results/STRENGTH_METRIC_MEAN_DIFF_BY_DATE.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.97091503267973</v>
+        <v>93.53480392156862</v>
       </c>
       <c r="C2" t="n">
-        <v>147.0071895424837</v>
+        <v>148.5367647058823</v>
       </c>
       <c r="D2" t="n">
-        <v>126.1003267973856</v>
+        <v>127.5160130718954</v>
       </c>
       <c r="E2" t="n">
-        <v>54.03627450980395</v>
+        <v>55.00196078431372</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.93636111111111</v>
+        <v>93.4729591503268</v>
       </c>
       <c r="C3" t="n">
-        <v>146.7032238562091</v>
+        <v>148.2448333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>126.1980343137255</v>
+        <v>127.6049640522876</v>
       </c>
       <c r="E3" t="n">
-        <v>53.76686274509804</v>
+        <v>54.77187418300653</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.77710294117647</v>
+        <v>84.32083006535947</v>
       </c>
       <c r="C4" t="n">
-        <v>131.9004820261438</v>
+        <v>133.1954232026144</v>
       </c>
       <c r="D4" t="n">
-        <v>114.3798316993464</v>
+        <v>115.5443496732026</v>
       </c>
       <c r="E4" t="n">
-        <v>48.12337908496734</v>
+        <v>48.87459313725492</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.24447875816993</v>
+        <v>37.42506045751635</v>
       </c>
       <c r="C5" t="n">
-        <v>57.96856535947713</v>
+        <v>58.3044591503268</v>
       </c>
       <c r="D5" t="n">
-        <v>47.98833496732026</v>
+        <v>48.66880882352941</v>
       </c>
       <c r="E5" t="n">
-        <v>20.72408660130719</v>
+        <v>20.87939869281045</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.1648218954248</v>
+        <v>145.2749803921569</v>
       </c>
       <c r="C6" t="n">
-        <v>138.4245784313726</v>
+        <v>137.2729575163399</v>
       </c>
       <c r="D6" t="n">
-        <v>132.0246045751634</v>
+        <v>132.3291797385621</v>
       </c>
       <c r="E6" t="n">
-        <v>14.14021732026143</v>
+        <v>12.94580065359477</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9395.598934640522</v>
+        <v>9425.862238562091</v>
       </c>
       <c r="C7" t="n">
-        <v>15119.31734150327</v>
+        <v>15100.17140522876</v>
       </c>
       <c r="D7" t="n">
-        <v>11881.44164379085</v>
+        <v>12051.63574019608</v>
       </c>
       <c r="E7" t="n">
-        <v>5723.718406862745</v>
+        <v>5674.309166666668</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/STRENGTH_METRIC_MEAN_DIFF_BY_DATE.xlsx
+++ b/[5] Tester Results/STRENGTH_METRIC_MEAN_DIFF_BY_DATE.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.53480392156862</v>
+        <v>41.14199346405229</v>
       </c>
       <c r="C2" t="n">
-        <v>148.5367647058823</v>
+        <v>68.01960784313725</v>
       </c>
       <c r="D2" t="n">
-        <v>127.5160130718954</v>
+        <v>56.83464052287582</v>
       </c>
       <c r="E2" t="n">
-        <v>55.00196078431372</v>
+        <v>26.87761437908496</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.4729591503268</v>
+        <v>40.01132638973827</v>
       </c>
       <c r="C3" t="n">
-        <v>148.2448333333333</v>
+        <v>66.04073178043767</v>
       </c>
       <c r="D3" t="n">
-        <v>127.6049640522876</v>
+        <v>55.28646350472431</v>
       </c>
       <c r="E3" t="n">
-        <v>54.77187418300653</v>
+        <v>26.0294053906994</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.32083006535947</v>
+        <v>37.57727262615507</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1954232026144</v>
+        <v>62.00728136061841</v>
       </c>
       <c r="D4" t="n">
-        <v>115.5443496732026</v>
+        <v>51.81885124535235</v>
       </c>
       <c r="E4" t="n">
-        <v>48.87459313725492</v>
+        <v>24.43000873446334</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.42506045751635</v>
+        <v>13.42790196078431</v>
       </c>
       <c r="C5" t="n">
-        <v>58.3044591503268</v>
+        <v>22.18037418300654</v>
       </c>
       <c r="D5" t="n">
-        <v>48.66880882352941</v>
+        <v>18.41101307189543</v>
       </c>
       <c r="E5" t="n">
-        <v>20.87939869281045</v>
+        <v>8.752472222222226</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145.2749803921569</v>
+        <v>31.3377908496732</v>
       </c>
       <c r="C6" t="n">
-        <v>137.2729575163399</v>
+        <v>32.49907679738562</v>
       </c>
       <c r="D6" t="n">
-        <v>132.3291797385621</v>
+        <v>7614.585045751634</v>
       </c>
       <c r="E6" t="n">
-        <v>12.94580065359477</v>
+        <v>7583.24725490196</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9425.862238562091</v>
+        <v>1735.326032679739</v>
       </c>
       <c r="C7" t="n">
-        <v>15100.17140522876</v>
+        <v>2925.478232026143</v>
       </c>
       <c r="D7" t="n">
-        <v>12051.63574019608</v>
+        <v>2146.920977124183</v>
       </c>
       <c r="E7" t="n">
-        <v>5674.309166666668</v>
+        <v>1190.152199346405</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/STRENGTH_METRIC_MEAN_DIFF_BY_DATE.xlsx
+++ b/[5] Tester Results/STRENGTH_METRIC_MEAN_DIFF_BY_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,39 +534,20 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.3377908496732</v>
+        <v>1106.868326797386</v>
       </c>
       <c r="C6" t="n">
-        <v>32.49907679738562</v>
+        <v>1885.756132352941</v>
       </c>
       <c r="D6" t="n">
-        <v>7614.585045751634</v>
+        <v>1409.855547385621</v>
       </c>
       <c r="E6" t="n">
-        <v>7583.24725490196</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1735.326032679739</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2925.478232026143</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2146.920977124183</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1190.152199346405</v>
+        <v>778.8878055555556</v>
       </c>
     </row>
   </sheetData>
